--- a/sequences_processing/ITS2_CLC/bi_gender_ITS2.xlsx
+++ b/sequences_processing/ITS2_CLC/bi_gender_ITS2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t xml:space="preserve">Samples</t>
   </si>
@@ -21,6 +21,12 @@
   </si>
   <si>
     <t xml:space="preserve">SIMPSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chao1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACE</t>
   </si>
   <si>
     <t xml:space="preserve">B_2_1</t>
@@ -491,10 +497,16 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1.9520851540203</v>
@@ -502,10 +514,16 @@
       <c r="C2" t="n">
         <v>0.744114129884615</v>
       </c>
+      <c r="D2" t="n">
+        <v>106.5625</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.3888888888889</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
         <v>2.13815838393605</v>
@@ -513,10 +531,16 @@
       <c r="C3" t="n">
         <v>0.802634509778495</v>
       </c>
+      <c r="D3" t="n">
+        <v>112.05</v>
+      </c>
+      <c r="E3" t="n">
+        <v>99.4137931034483</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
         <v>2.25105845583469</v>
@@ -524,10 +548,16 @@
       <c r="C4" t="n">
         <v>0.819145701904019</v>
       </c>
+      <c r="D4" t="n">
+        <v>85.3888888888889</v>
+      </c>
+      <c r="E4" t="n">
+        <v>80.6754385964912</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
         <v>2.20980494655978</v>
@@ -535,10 +565,16 @@
       <c r="C5" t="n">
         <v>0.806916664183624</v>
       </c>
+      <c r="D5" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.9924812030075</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
         <v>1.90630174316697</v>
@@ -546,10 +582,16 @@
       <c r="C6" t="n">
         <v>0.748988015139279</v>
       </c>
+      <c r="D6" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>89.24</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
         <v>2.04019511781805</v>
@@ -557,10 +599,16 @@
       <c r="C7" t="n">
         <v>0.7830950692888</v>
       </c>
+      <c r="D7" t="n">
+        <v>108</v>
+      </c>
+      <c r="E7" t="n">
+        <v>95.9478260869565</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
         <v>1.87915347997823</v>
@@ -568,10 +616,16 @@
       <c r="C8" t="n">
         <v>0.764034431430165</v>
       </c>
+      <c r="D8" t="n">
+        <v>95.3333333333333</v>
+      </c>
+      <c r="E8" t="n">
+        <v>79.8181818181818</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
         <v>2.02053278510675</v>
@@ -579,10 +633,16 @@
       <c r="C9" t="n">
         <v>0.776722821101265</v>
       </c>
+      <c r="D9" t="n">
+        <v>107</v>
+      </c>
+      <c r="E9" t="n">
+        <v>88.9503546099291</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
         <v>1.96771884067019</v>
@@ -590,10 +650,16 @@
       <c r="C10" t="n">
         <v>0.775649486899252</v>
       </c>
+      <c r="D10" t="n">
+        <v>113.5625</v>
+      </c>
+      <c r="E10" t="n">
+        <v>93.8175182481752</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
         <v>2.07941248609878</v>
@@ -601,10 +667,16 @@
       <c r="C11" t="n">
         <v>0.817397792279374</v>
       </c>
+      <c r="D11" t="n">
+        <v>81.5454545454545</v>
+      </c>
+      <c r="E11" t="n">
+        <v>78.4177215189873</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
         <v>2.02710429841376</v>
@@ -612,10 +684,16 @@
       <c r="C12" t="n">
         <v>0.794097707202142</v>
       </c>
+      <c r="D12" t="n">
+        <v>95.3333333333333</v>
+      </c>
+      <c r="E12" t="n">
+        <v>79.9469026548673</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
         <v>2.20370571970796</v>
@@ -623,10 +701,16 @@
       <c r="C13" t="n">
         <v>0.784917740470132</v>
       </c>
+      <c r="D13" t="n">
+        <v>127</v>
+      </c>
+      <c r="E13" t="n">
+        <v>104.531914893617</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n">
         <v>1.95062327633195</v>
@@ -634,10 +718,16 @@
       <c r="C14" t="n">
         <v>0.752279319511484</v>
       </c>
+      <c r="D14" t="n">
+        <v>91</v>
+      </c>
+      <c r="E14" t="n">
+        <v>82.6923076923077</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n">
         <v>2.15894800372152</v>
@@ -645,10 +735,16 @@
       <c r="C15" t="n">
         <v>0.803896141132378</v>
       </c>
+      <c r="D15" t="n">
+        <v>93.8461538461538</v>
+      </c>
+      <c r="E15" t="n">
+        <v>90.3225806451613</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n">
         <v>1.79083102846367</v>
@@ -656,10 +752,16 @@
       <c r="C16" t="n">
         <v>0.739799248632057</v>
       </c>
+      <c r="D16" t="n">
+        <v>103.785714285714</v>
+      </c>
+      <c r="E16" t="n">
+        <v>85.4067796610169</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n">
         <v>1.97729184014295</v>
@@ -667,10 +769,16 @@
       <c r="C17" t="n">
         <v>0.795758777015283</v>
       </c>
+      <c r="D17" t="n">
+        <v>154.666666666667</v>
+      </c>
+      <c r="E17" t="n">
+        <v>85.275</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n">
         <v>2.09883810605941</v>
@@ -678,10 +786,16 @@
       <c r="C18" t="n">
         <v>0.814948301433334</v>
       </c>
+      <c r="D18" t="n">
+        <v>124.25</v>
+      </c>
+      <c r="E18" t="n">
+        <v>93.859649122807</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n">
         <v>1.72907604520576</v>
@@ -689,10 +803,16 @@
       <c r="C19" t="n">
         <v>0.728184640365083</v>
       </c>
+      <c r="D19" t="n">
+        <v>104</v>
+      </c>
+      <c r="E19" t="n">
+        <v>84.38</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n">
         <v>1.98831948042488</v>
@@ -700,10 +820,16 @@
       <c r="C20" t="n">
         <v>0.800164895070588</v>
       </c>
+      <c r="D20" t="n">
+        <v>114.1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>79.2307692307692</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n">
         <v>2.11368715543885</v>
@@ -711,10 +837,16 @@
       <c r="C21" t="n">
         <v>0.799520585608429</v>
       </c>
+      <c r="D21" t="n">
+        <v>114.888888888889</v>
+      </c>
+      <c r="E21" t="n">
+        <v>96.9323308270677</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n">
         <v>2.17226903853123</v>
@@ -722,10 +854,16 @@
       <c r="C22" t="n">
         <v>0.795727001685252</v>
       </c>
+      <c r="D22" t="n">
+        <v>128</v>
+      </c>
+      <c r="E22" t="n">
+        <v>103.76</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n">
         <v>2.03583321451669</v>
@@ -733,10 +871,16 @@
       <c r="C23" t="n">
         <v>0.760245830001191</v>
       </c>
+      <c r="D23" t="n">
+        <v>110.8</v>
+      </c>
+      <c r="E23" t="n">
+        <v>91.8267716535433</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n">
         <v>1.98889360431293</v>
@@ -744,10 +888,16 @@
       <c r="C24" t="n">
         <v>0.781631316809045</v>
       </c>
+      <c r="D24" t="n">
+        <v>85.2222222222222</v>
+      </c>
+      <c r="E24" t="n">
+        <v>77.0740740740741</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n">
         <v>1.90498109160207</v>
@@ -755,10 +905,16 @@
       <c r="C25" t="n">
         <v>0.780586922065302</v>
       </c>
+      <c r="D25" t="n">
+        <v>74.0833333333333</v>
+      </c>
+      <c r="E25" t="n">
+        <v>64.5157894736842</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n">
         <v>1.37106829366419</v>
@@ -766,10 +922,16 @@
       <c r="C26" t="n">
         <v>0.529756056306578</v>
       </c>
+      <c r="D26" t="n">
+        <v>94</v>
+      </c>
+      <c r="E26" t="n">
+        <v>69.3513513513514</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n">
         <v>2.03916569765114</v>
@@ -777,10 +939,16 @@
       <c r="C27" t="n">
         <v>0.779917871348849</v>
       </c>
+      <c r="D27" t="n">
+        <v>93.6</v>
+      </c>
+      <c r="E27" t="n">
+        <v>73.5849056603774</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n">
         <v>1.76195709419846</v>
@@ -788,10 +956,16 @@
       <c r="C28" t="n">
         <v>0.732434619491914</v>
       </c>
+      <c r="D28" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="E28" t="n">
+        <v>68.8333333333333</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n">
         <v>1.53722310972711</v>
@@ -799,10 +973,16 @@
       <c r="C29" t="n">
         <v>0.632172205444894</v>
       </c>
+      <c r="D29" t="n">
+        <v>90.7857142857143</v>
+      </c>
+      <c r="E29" t="n">
+        <v>73.7692307692308</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n">
         <v>1.99675875076975</v>
@@ -810,10 +990,16 @@
       <c r="C30" t="n">
         <v>0.812919802706921</v>
       </c>
+      <c r="D30" t="n">
+        <v>91</v>
+      </c>
+      <c r="E30" t="n">
+        <v>76.379746835443</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n">
         <v>1.77239659237044</v>
@@ -821,10 +1007,16 @@
       <c r="C31" t="n">
         <v>0.672052636238415</v>
       </c>
+      <c r="D31" t="n">
+        <v>108.5625</v>
+      </c>
+      <c r="E31" t="n">
+        <v>89.8623853211009</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n">
         <v>1.69419163733065</v>
@@ -832,10 +1024,16 @@
       <c r="C32" t="n">
         <v>0.659828552009175</v>
       </c>
+      <c r="D32" t="n">
+        <v>92.9</v>
+      </c>
+      <c r="E32" t="n">
+        <v>70.1025641025641</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n">
         <v>1.9773070216007</v>
@@ -843,10 +1041,16 @@
       <c r="C33" t="n">
         <v>0.783389184268723</v>
       </c>
+      <c r="D33" t="n">
+        <v>100.285714285714</v>
+      </c>
+      <c r="E33" t="n">
+        <v>93.6071428571429</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n">
         <v>2.03134054662457</v>
@@ -854,10 +1058,16 @@
       <c r="C34" t="n">
         <v>0.78734044009203</v>
       </c>
+      <c r="D34" t="n">
+        <v>112.181818181818</v>
+      </c>
+      <c r="E34" t="n">
+        <v>95.9130434782609</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n">
         <v>1.86186962364021</v>
@@ -865,10 +1075,16 @@
       <c r="C35" t="n">
         <v>0.739477254318583</v>
       </c>
+      <c r="D35" t="n">
+        <v>107.571428571429</v>
+      </c>
+      <c r="E35" t="n">
+        <v>81.9491525423729</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n">
         <v>1.81960872355679</v>
@@ -876,10 +1092,16 @@
       <c r="C36" t="n">
         <v>0.764324568091725</v>
       </c>
+      <c r="D36" t="n">
+        <v>81</v>
+      </c>
+      <c r="E36" t="n">
+        <v>71.530612244898</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n">
         <v>2.08807944106803</v>
@@ -887,10 +1109,16 @@
       <c r="C37" t="n">
         <v>0.796046465343681</v>
       </c>
+      <c r="D37" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="E37" t="n">
+        <v>82.0263157894737</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n">
         <v>1.96989979203485</v>
@@ -898,10 +1126,16 @@
       <c r="C38" t="n">
         <v>0.768754659919648</v>
       </c>
+      <c r="D38" t="n">
+        <v>89.6428571428571</v>
+      </c>
+      <c r="E38" t="n">
+        <v>76.6282051282051</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n">
         <v>1.75064477579122</v>
@@ -909,10 +1143,16 @@
       <c r="C39" t="n">
         <v>0.730163182947771</v>
       </c>
+      <c r="D39" t="n">
+        <v>88.3333333333333</v>
+      </c>
+      <c r="E39" t="n">
+        <v>74.4936708860759</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n">
         <v>1.81663197150037</v>
@@ -920,10 +1160,16 @@
       <c r="C40" t="n">
         <v>0.741706464329721</v>
       </c>
+      <c r="D40" t="n">
+        <v>79.45</v>
+      </c>
+      <c r="E40" t="n">
+        <v>75.5217391304348</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n">
         <v>2.14906319489073</v>
@@ -931,10 +1177,16 @@
       <c r="C41" t="n">
         <v>0.811385998698888</v>
       </c>
+      <c r="D41" t="n">
+        <v>124.125</v>
+      </c>
+      <c r="E41" t="n">
+        <v>81.6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n">
         <v>1.99204686062436</v>
@@ -942,10 +1194,16 @@
       <c r="C42" t="n">
         <v>0.795514465874164</v>
       </c>
+      <c r="D42" t="n">
+        <v>111.166666666667</v>
+      </c>
+      <c r="E42" t="n">
+        <v>69.8809523809524</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n">
         <v>2.11406098551315</v>
@@ -953,16 +1211,28 @@
       <c r="C43" t="n">
         <v>0.819158966796786</v>
       </c>
+      <c r="D43" t="n">
+        <v>73.4</v>
+      </c>
+      <c r="E43" t="n">
+        <v>62.8857142857143</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n">
         <v>1.92577579407245</v>
       </c>
       <c r="C44" t="n">
         <v>0.722725275762917</v>
+      </c>
+      <c r="D44" t="n">
+        <v>88.6</v>
+      </c>
+      <c r="E44" t="n">
+        <v>74.078431372549</v>
       </c>
     </row>
   </sheetData>
